--- a/PRODUTOS/Limpeza/Limpeza - Desinfetantes.xlsx
+++ b/PRODUTOS/Limpeza/Limpeza - Desinfetantes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Desinfetante Bufalo 2l Lavanda</t>
+          <t>Desinf Lysoform Ap 500ml Original</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 6,39</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c8c56202-c193-404f-8527-6f95a9494dc0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/94cb6e23-2e8e-40f6-b5e2-bbce0a4703a0.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7894650938478</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Desinfetante Sanol 2l Lavanda</t>
+          <t>Desinf Pato Germ 750ml Gts 250ml Lavand</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 7,69</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5bfce0d-2a29-4feb-9e17-6946f1f257ec.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/18a56f2e-4a51-4f91-b484-d1acaa91b113.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7894650013588</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Desinfetante Bufalo Eucalipto 2lt</t>
+          <t>Desinfetante Lysoform Bruto Suave 1l</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 6,39</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b928bfb8-4bb0-42f5-8816-727b97a8f93c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6bd62a1-aa0a-49c7-a93b-c7807cd5a8e5.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7897000800814</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Desinfetante Agifacil 2l Lavanda</t>
+          <t>Pato Purifi Germix Marine Azul 500ml+250</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fbdc3fb9-683e-4d71-beae-e3a41a7ff136.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cff10b09-2650-48f1-ab1d-1842fe6ca577.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7894650013571</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Desinfetante Leitoso Sanol 5lt Lavanda</t>
+          <t>Desinfetante Sanol 2l Citronela</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 7,69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b84c46e6-d416-4f25-9aab-6ebc89e1f94b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ba90739f-e5fd-42ba-a156-8c3cb292777d.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896183301545</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Desinfetante Sanol 2l Floral Mandarino</t>
+          <t>Desinfetante Pinho Sol 500ml Lavanda</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 7,69</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e25bfde8-68c9-4afc-b8d2-6ac337452af5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d15cb8ff-ff62-4a19-994a-8b7cf09cd8c7.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891024193006</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Desinfetante Lysoform Bruto Suave 1l</t>
+          <t>Desinfetante Harpic 500ml Lavanda</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 18,98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6bd62a1-aa0a-49c7-a93b-c7807cd5a8e5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f6634a1-2c7c-4ac1-8394-140287122a60.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891035126000</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Desinfetante Agifacil 2l Floral</t>
+          <t>Desinfetante Urca 2l Eucalipto</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/113a2718-cad7-49d2-938f-f293a839500f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e44596b2-7690-45ee-a13d-7240f309b413.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896056401051</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Desinfetante Sanol 2l Talco E Algodao</t>
+          <t>Desinfetante Pinho Bril 500ml Lavanda</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 7,69</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df8e1a43-cb27-419f-b850-adc7f24f20f7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/964be3af-8318-4c6e-9379-ea7ba54e9475.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891022101096</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Desinfetante Agifacil 2 Litros Brisa Do Oceano</t>
+          <t>Desinfetante Pinho Bril 1l Lavanda</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/751161af-f2fe-4da8-bacd-c09f4ef79fba.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5a2e18ae-0625-4426-be76-bd366a0decd5.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7891022101096</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Desinfetante Sanol 2l Eucalipto</t>
+          <t>Desinf Kalipto Bom Bril 750ml Eucalipto</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 7,69</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3da7aafb-4782-456b-809b-9fd66dfaf0ac.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0789077-5d39-4b13-8ee6-9cf165db9438.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891022848069</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Desinfetante Bufalo 2l Ocean</t>
+          <t>Desinfetante Pinho Bril 1l Plus</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 6,39</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8d8172ed-f82f-4a7b-a5f1-d1be4a5fe291.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c93dfdbd-9fd9-487f-8c36-11aee9cda9f4.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7891022080049</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Desinfetante Pinho Jet Bufalo Lavanda 2lt</t>
+          <t>Desinf Pinho Bril 500ml Fl Limao</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 6,39</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19a6516c-4e5e-43ed-a088-966c482c996c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ecfa5836-1b41-4c47-86d0-b4a1427397f0.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891022854770</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Desinfetante Sanol 2l Citronela</t>
+          <t>Desinfetante Pinho Bril 1l Limao</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 7,69</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ba90739f-e5fd-42ba-a156-8c3cb292777d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9fef94e-abe9-4117-9d59-39fdceb204e5.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891022100334</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Desinfetante Pinho Sol 500ml Original</t>
+          <t>Desinfetante Pinho Bril 1l Marine</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/27a4933f-da82-4f81-b8b5-efee29b8fed1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ded49b3-43c2-4392-8823-b7370da013b8.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7891022101478</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Desinf Multiuso Cif 500ml Antibacteriano</t>
+          <t>Desinf Gel Pinguim Active Lavanda 750gr</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cfcc5584-847b-4924-8600-d1a5f7697dd9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/695f6f15-4a97-4bf1-9f92-eb14c505301f.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896495000822</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Desinfetante Agifacil 2 Litros Frutas Vermelhas</t>
+          <t>Desinfetante Harpic 500ml Cloro Ativo</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 18,98</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2844402d-cd9d-4156-a98e-90f436c1e4b6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6979023-62b3-41ac-ba73-5216790604fe.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7891035124006</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Desinfetante Bufalo Jasmim 2l</t>
+          <t>Desinf Pinho Sol 1l Limao</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 6,39</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5cf92da-bdc9-48e7-87bd-0aacef93c686.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed0cc58a-8f40-42b4-980c-195481c6ad6e.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7891024195604</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Desinfetante Leitoso Sanol 5lt Eucalipto</t>
+          <t>Desinf Pinho Sol 1l Original</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e59b5809-ea4b-4be5-be01-cbed8bfd066a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/080a5342-5b4a-4117-8ba0-3a42e40766ea.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7891024195604</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Desinfetante Urca 2l Lavanda</t>
+          <t>Desinf Gel Pinguim Pinho Silv. 750gr</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9700d5d-16f8-4b0c-9d83-524231eebc93.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ac52191d-5f4b-4b90-82ed-0edea3bb34f8.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896495000822</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Desinfetante Bak Ype 500ml Floral</t>
+          <t>Desinfetante Eucalipto Bufalo 750ml</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 3,69</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd58a4ca-dcb4-4272-9e47-3493afca3788.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a3bb2387-1773-4c13-8ae4-0866b0b349a5.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7896097600024</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Desinfetante Pinho Bril 500ml Lavanda</t>
+          <t>Desinfetante Herbal Bufalo 750ml</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 3,69</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/964be3af-8318-4c6e-9379-ea7ba54e9475.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6416d0f-c62f-4342-a358-4a417cee6ab2.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7896097600147</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Desinfetante Sanol 2l Infusão De Rosas</t>
+          <t>Desinfetante Lavanda Bufalo 750ml</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 7,69</t>
+          <t>R$ 3,69</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b9ba9fe-23f6-4d17-93cc-ad3d38792941.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/91988e90-36a4-414e-8b1d-bab062b990a0.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7896097600031</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Limpador Perfumada Coala 120ml Lavanda</t>
+          <t>Desinfetante Lysoclin Aerosol 400ml</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 34,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd5ac95d-061b-4210-b5ee-f8941cb44044.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f00507d-8f45-4681-aae8-eccb40e84735.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7896495000976</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Desinfetante Urca 2l Pinho</t>
+          <t>Desinf Pinho Jet Bufalo 750ml Pinho</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 3,69</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f4bd08ed-b780-4cba-97d6-198dff77279c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6cf5e92e-f756-49f5-b383-3d5c5b8e0a97.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7896097600048</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Desinfetante Urca 2l Floral</t>
+          <t>Desinfetante Bufalo Ocean 750ml</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 3,69</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6520121-8fcc-4742-b41e-1f95bea90e2d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2266b80a-b013-4823-9f18-cb7efc56e91d.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7896097600154</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Limp Perfumada Coala 120ml Algodao</t>
+          <t>Desinf Pinho Jet 2l Bufalo Trad</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 6,39</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef87a68b-37eb-4e45-ba95-633ecd3a20a4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff8c993c-29a4-4af9-8cd7-c01720317652.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7896097607245</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Desinfetante Pato Purific Marine 500ml</t>
+          <t>Desinfetante Sanol 2l Infusão De Rosas</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 7,69</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf103024-4ce9-4528-9ae3-1e6ac6edcbcd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b9ba9fe-23f6-4d17-93cc-ad3d38792941.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7896183302436</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Desinf Pinho Jet 2l Bufalo Trad</t>
+          <t>Desinfetante Sanol 2l Talco E Algodao</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 6,39</t>
+          <t>R$ 7,69</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff8c993c-29a4-4af9-8cd7-c01720317652.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df8e1a43-cb27-419f-b850-adc7f24f20f7.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7896183302429</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Desinfetante Pinho Bril Sil 500ml Plus</t>
+          <t>Desinfetante Ype Cytrus 500 Ml</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5613cc55-19e3-4d93-a578-92cd80e4a238.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b144b967-2e4f-4f11-a4f5-404a81068533.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7896098900611</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Desinfetante Pinho Bril 1l Lavanda</t>
+          <t>Desinf Ype Lavanda Bak 500ml</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5a2e18ae-0625-4426-be76-bd366a0decd5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e78790cd-52fb-4c43-a367-a3c0c0b547e5.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7896098900628</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Pato Purifi Germix Marine Azul 500ml+250</t>
+          <t>Desinfetante Urca 2l Lavanda</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cff10b09-2650-48f1-ab1d-1842fe6ca577.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9700d5d-16f8-4b0c-9d83-524231eebc93.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7896056405684</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Desinfetante Sanol Original 2l</t>
+          <t>Desinfetante Urca 2l Eucalipto Fresh</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 7,69</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/304b61ba-0d35-496e-9a19-fd9bacef35d7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/87af8045-cef6-46ce-b94e-0bae87d496f3.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7896056401051</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Desinf Pato Germ 750ml Gts 250ml Lavand</t>
+          <t>Desinfetante Urca 2l Floral</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/18a56f2e-4a51-4f91-b484-d1acaa91b113.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6520121-8fcc-4742-b41e-1f95bea90e2d.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7896056402485</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Desinfetante Bak Ype Eucalipto 500ml</t>
+          <t>Desinfetante Bufalo Eucalipto 2lt</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 6,39</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8a449ee1-0837-4857-8791-24c40e373d62.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b928bfb8-4bb0-42f5-8816-727b97a8f93c.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7896097600024</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Limp Perfumada Coala 120ml Talco</t>
+          <t>Desinfetante Bufalo 2l Lavanda</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 6,39</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f602330f-64b8-4632-9013-9b7557de30e2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c8c56202-c193-404f-8527-6f95a9494dc0.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896097607238</t>
         </is>
       </c>
     </row>
@@ -1433,7 +1618,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Desinfetante Agifacil 2 Litros Ramos De Eucalipto</t>
+          <t>Desinf Kalipto Bom Bril 750ml Lavanda</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1443,7 +1628,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec1b8abf-ff92-4e58-844d-8fb2415ac866.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5aede13a-f8f5-4a73-a77b-16a007f00aac.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7891022848069</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Desinf Pinho Jet Bufalo 750ml Pinho</t>
+          <t>Desinfetante Sanol 2l Floral Mandarino</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 3,69</t>
+          <t>R$ 7,69</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6cf5e92e-f756-49f5-b383-3d5c5b8e0a97.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e25bfde8-68c9-4afc-b8d2-6ac337452af5.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7896183300173</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Desinfetante Lavanda Bufalo 750ml</t>
+          <t>Desinfetante Sanol 2l Eucalipto</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 3,69</t>
+          <t>R$ 7,69</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/91988e90-36a4-414e-8b1d-bab062b990a0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3da7aafb-4782-456b-809b-9fd66dfaf0ac.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7896183300180</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1714,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Desinfetante Pinho Sol 500ml Lavanda</t>
+          <t>Desinf Pinho Sol 500ml Floral</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1524,7 +1724,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d15cb8ff-ff62-4a19-994a-8b7cf09cd8c7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5aeab2d6-6639-48cb-aaad-27a2c71c62e3.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7891024193006</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Desinfetante Pinho Sol 1l Naturals Lavanda</t>
+          <t>Desinfetante Bak Ype Eucalipto 500ml</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cb70b490-d32e-4f66-9456-3fec22e03b32.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8a449ee1-0837-4857-8791-24c40e373d62.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7896098903605</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Desinf Vim Cloro Gel 700ml Lavanda</t>
+          <t>Desinf Pinho Ype 500ml Lavanda</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d97ffce4-9b71-4161-afdf-a392bac4723b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f180ee5e-db31-4e78-a397-06936d833661.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7896098900628</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Desinfetante Pinho Bril 1l Plus</t>
+          <t>Desinfetante Bak Ype 500ml Floral</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c93dfdbd-9fd9-487f-8c36-11aee9cda9f4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd58a4ca-dcb4-4272-9e47-3493afca3788.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7896098903612</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Desinfetante Urca 2l Eucalipto</t>
+          <t>Desinf Vim Cloro Gel 700ml Orig</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e44596b2-7690-45ee-a13d-7240f309b413.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f749e845-15e5-4e71-9405-d1fef86cbb5b.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7891150057517</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Desinf Pinho Ype 500ml Lavanda</t>
+          <t>Desinfetante Leitoso Sanol 5lt Eucalipto</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f180ee5e-db31-4e78-a397-06936d833661.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e59b5809-ea4b-4be5-be01-cbed8bfd066a.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7896183305109</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Desinf Vim Cloro Gel 700ml Orig</t>
+          <t>Desinfetante Leitoso Sanol 5lt Lavanda</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f749e845-15e5-4e71-9405-d1fef86cbb5b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b84c46e6-d416-4f25-9aab-6ebc89e1f94b.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7896183308667</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Desinfetante Bak Ype 500ml Turquesa</t>
+          <t>Limpador Perfumada Coala 120ml Lavanda</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1e077283-06cc-4735-85d8-281797573627.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd5ac95d-061b-4210-b5ee-f8941cb44044.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7897744502098</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Desinfetante Harpic 500ml Lavanda</t>
+          <t>Limp Perfumada Coala 120ml Talco</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 18,98</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f6634a1-2c7c-4ac1-8394-140287122a60.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f602330f-64b8-4632-9013-9b7557de30e2.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7897744502098</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Desinfetante Pato Purific Natureza500ml</t>
+          <t>Limp Perfumada Coala 120ml Pinho</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8a8fc00-3663-4cff-ae78-60a2415a3b01.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cef76f77-1b7a-4efe-8783-2494e35cdf53.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7897744502111</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Desinf Ype Lavanda Bak 500ml</t>
+          <t>Limp Perfumada Coala 120ml Capim Limao</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e78790cd-52fb-4c43-a367-a3c0c0b547e5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e749e30d-1f03-4df6-b30a-49cc8e92be8a.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7897744502166</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Desinfetante Sanol 2l Herbal Jasmim</t>
+          <t>Limp Perfumada Coala 120ml Algodao</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 7,69</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15a30d52-2493-4a64-9d41-dec26642e4fb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef87a68b-37eb-4e45-ba95-633ecd3a20a4.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7897744502098</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Desinfetante Eucalipto Bufalo 750ml</t>
+          <t>Limp Perfumado Coala 120ml Bambu</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 3,69</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a3bb2387-1773-4c13-8ae4-0866b0b349a5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9aa290fc-b01f-46d4-884f-1fac972644af.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7897744502432</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Desinf Pinho Bril 500ml Fl Limao</t>
+          <t>Desinf Multiuso Cif 500ml Antibacteriano</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ecfa5836-1b41-4c47-86d0-b4a1427397f0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cfcc5584-847b-4924-8600-d1a5f7697dd9.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7891150071742</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Desinfetante Harpic 500ml Cloro Ativo</t>
+          <t>Limp Perfumado Coala 120ml Cereja E Avela</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 18,98</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6979023-62b3-41ac-ba73-5216790604fe.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f39a8c9d-a42a-4d24-a8e0-80d1d8f6bda2.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7897744503828</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Desinfetante Sanol 2l Ocean</t>
+          <t>Desinfetante Multi Inspira Antimofo 5 Em 1 500ml</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 7,69</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2f2d970-b084-4ce2-8e65-b2f048087260.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f1647f7-57b8-4a52-b20d-e1e901a48c46.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7896021627479</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Desinfetante Pinho Sol 500ml C.limao</t>
+          <t>Desinfetante Agifacil 2l Floral</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/103f2912-ee5d-4724-8b0d-534b6dbcab6a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/113a2718-cad7-49d2-938f-f293a839500f.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7898005490116</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Desinf Gel Pinguim Pinho Silv. 750gr</t>
+          <t>Desinfetante Agifacil 2 Litros Brisa Do Oceano</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ac52191d-5f4b-4b90-82ed-0edea3bb34f8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/751161af-f2fe-4da8-bacd-c09f4ef79fba.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7898005496583</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Limp Perfumado Coala 120ml Bambu</t>
+          <t>Desinf Veja Power Action 500ml Pinho</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9aa290fc-b01f-46d4-884f-1fac972644af.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f217f57-f60a-46d4-b114-7cb61ebb1674.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7891242151567</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Desinf Kalipto Bom Bril 750ml Lavanda</t>
+          <t>Limpador Limpeza Pesada Uau 500ml Alta Performance</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5aede13a-f8f5-4a73-a77b-16a007f00aac.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/89ecc77f-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7891242461697</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Desinfetante Pinho Bril 1l Limao</t>
+          <t>Limpador Limpeza Pesada Uau 500ml Cloro Ativo</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9fef94e-abe9-4117-9d59-39fdceb204e5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/748c773a-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7891242461536</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Limp Perfumado Coala 120ml Cereja E Avela</t>
+          <t>Limpador Limpeza Pesada Uau 500ml Rosas E Sedução</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f39a8c9d-a42a-4d24-a8e0-80d1d8f6bda2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9422697d-c0e3-4383-a7b1-617001dcdf98.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7891035250002</t>
         </is>
       </c>
     </row>
@@ -2108,611 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Desinf Gel Pinguim Active Lavanda 750gr</t>
+          <t>Limpador Perfumado Coala 120ml Chá Branco</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/695f6f15-4a97-4bf1-9f92-eb14c505301f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Limp Perfumada Coala 120ml Capim Limao</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e749e30d-1f03-4df6-b30a-49cc8e92be8a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Desinf Pinho Sol 1l Original</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/080a5342-5b4a-4117-8ba0-3a42e40766ea.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Desinfetante Ype Cytrus 500 Ml</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>R$ 6,49</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b144b967-2e4f-4f11-a4f5-404a81068533.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Limp Perfumada Coala 120ml Pinho</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cef76f77-1b7a-4efe-8783-2494e35cdf53.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Desinfetante Herbal Bufalo 750ml</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>R$ 3,69</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6416d0f-c62f-4342-a358-4a417cee6ab2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Desinfetante Pinho Bril 500ml B. Do Mar</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b8e9fba-a3a1-49e1-80e8-0799098d29e2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Desinfetante Pinho Bril 1l Marine</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ded49b3-43c2-4392-8823-b7370da013b8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Desinf Pinho Sol 1l Limao</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed0cc58a-8f40-42b4-980c-195481c6ad6e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Desinf Veja Power Action 500ml Pinho</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f217f57-f60a-46d4-b114-7cb61ebb1674.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Desinfetante Floral Bufalo 750ml</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>R$ 3,69</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bbecb6c4-46ed-4bef-aec2-efff3cc62cad.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Desinf Pinho Sol 500ml Floral</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5aeab2d6-6639-48cb-aaad-27a2c71c62e3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Limp Perfumada Coala 120ml Citriodora</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/20a2bb8f-1fbb-4f3a-9605-026b4a1368dd.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Desinfetante Ype Tradicao 500 Ml</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>R$ 6,49</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cbe3d5f1-562c-423f-9290-34872352fe62.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Desinf Kalipto Bom Bril 750ml Eucalipto</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0789077-5d39-4b13-8ee6-9cf165db9438.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Desinfetante Bufalo Ocean 750ml</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>R$ 3,69</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2266b80a-b013-4823-9f18-cb7efc56e91d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Limpador Limpeza Pesada Uau 500ml Rosas E Sedução</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9422697d-c0e3-4383-a7b1-617001dcdf98.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Desinf Lysoform Ap 500ml Original</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/94cb6e23-2e8e-40f6-b5e2-bbce0a4703a0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Limpador Perfumado Coala 120ml Chá Branco</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3f8894d1-cea7-4d43-bbe1-a47ee24942e7.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Desinfetante Lysoclin Aerosol 400ml</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>R$ 34,99</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f00507d-8f45-4681-aae8-eccb40e84735.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Desinfetante Multi Inspira Antimofo 5 Em 1 500ml</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f1647f7-57b8-4a52-b20d-e1e901a48c46.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Limpador Limpeza Pesada Uau 500ml Alta Performance</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/89ecc77f-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Desinfetantes</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Limpador Limpeza Pesada Uau 500ml Cloro Ativo</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/748c773a-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7897744504740</t>
         </is>
       </c>
     </row>
